--- a/Modelo - E2/Base de Datos/Datos Medicos.xlsx
+++ b/Modelo - E2/Base de Datos/Datos Medicos.xlsx
@@ -23,6 +23,10 @@
     <sheet name="Medico 13" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="Medico 14" sheetId="15" state="visible" r:id="rId15"/>
     <sheet name="Medico 15" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Medico 16" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Medico 17" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Medico 18" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Medico 19" sheetId="20" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,10 +480,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C2" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
@@ -487,10 +491,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C3" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
@@ -498,10 +502,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -509,10 +513,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
@@ -520,10 +524,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C6" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +535,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C7" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -542,10 +546,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C8" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
@@ -553,10 +557,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +568,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C10" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
@@ -575,10 +579,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -622,10 +626,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C2" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
@@ -655,10 +659,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -666,10 +670,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C6" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
@@ -677,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C7" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
@@ -688,10 +692,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -699,10 +703,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
@@ -710,10 +714,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
@@ -721,10 +725,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C11" t="n">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -768,10 +772,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C2" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
@@ -779,10 +783,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
@@ -790,10 +794,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -801,10 +805,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -812,10 +816,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
@@ -823,10 +827,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
@@ -834,10 +838,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -845,10 +849,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
@@ -856,10 +860,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C10" t="n">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -867,10 +871,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C11" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -914,10 +918,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C2" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -936,10 +940,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -947,10 +951,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -958,10 +962,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C6" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -969,10 +973,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C7" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -980,10 +984,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C8" t="n">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
@@ -991,10 +995,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C9" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
@@ -1002,10 +1006,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C10" t="n">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
@@ -1013,10 +1017,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C11" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1060,10 +1064,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
@@ -1071,10 +1075,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C3" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
@@ -1082,10 +1086,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -1093,10 +1097,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -1104,10 +1108,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -1115,10 +1119,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C7" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
@@ -1137,10 +1141,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
@@ -1148,10 +1152,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C10" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
@@ -1159,10 +1163,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1206,10 +1210,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C2" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
@@ -1217,10 +1221,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C3" t="n">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
@@ -1228,10 +1232,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C4" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -1239,10 +1243,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C5" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -1250,10 +1254,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C6" t="n">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -1261,10 +1265,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
@@ -1272,10 +1276,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
@@ -1283,10 +1287,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C9" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
@@ -1294,10 +1298,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C10" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
@@ -1305,10 +1309,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C11" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1352,10 +1356,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
@@ -1374,10 +1378,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
@@ -1385,10 +1389,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -1396,10 +1400,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
@@ -1407,10 +1411,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C7" t="n">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
@@ -1418,10 +1422,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -1429,10 +1433,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C9" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
@@ -1440,10 +1444,448 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
+        <v>43</v>
+      </c>
+      <c r="C10" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>41</v>
+      </c>
+      <c r="C11" t="n">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Día</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Hora Entrada</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Hora Salida</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>33</v>
+      </c>
+      <c r="C2" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>38</v>
+      </c>
+      <c r="C3" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>37</v>
+      </c>
+      <c r="C4" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
         <v>42</v>
       </c>
+      <c r="C5" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>33</v>
+      </c>
+      <c r="C6" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>42</v>
+      </c>
+      <c r="C7" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>33</v>
+      </c>
+      <c r="C8" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>33</v>
+      </c>
+      <c r="C9" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>41</v>
+      </c>
       <c r="C10" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>35</v>
+      </c>
+      <c r="C11" t="n">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Día</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Hora Entrada</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Hora Salida</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>43</v>
+      </c>
+      <c r="C2" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>38</v>
+      </c>
+      <c r="C3" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>36</v>
+      </c>
+      <c r="C4" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>36</v>
+      </c>
+      <c r="C5" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>34</v>
+      </c>
+      <c r="C6" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>39</v>
+      </c>
+      <c r="C7" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>36</v>
+      </c>
+      <c r="C8" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>35</v>
+      </c>
+      <c r="C9" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>43</v>
+      </c>
+      <c r="C10" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>42</v>
+      </c>
+      <c r="C11" t="n">
         <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Día</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Hora Entrada</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Hora Salida</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>37</v>
+      </c>
+      <c r="C2" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>40</v>
+      </c>
+      <c r="C3" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>38</v>
+      </c>
+      <c r="C4" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>43</v>
+      </c>
+      <c r="C5" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>43</v>
+      </c>
+      <c r="C6" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>43</v>
+      </c>
+      <c r="C7" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>38</v>
+      </c>
+      <c r="C8" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>41</v>
+      </c>
+      <c r="C9" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>41</v>
+      </c>
+      <c r="C10" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="11">
@@ -1509,10 +1951,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C3" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
@@ -1520,10 +1962,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C4" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -1531,10 +1973,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C5" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -1542,10 +1984,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C6" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -1553,10 +1995,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C7" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
@@ -1564,10 +2006,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C8" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
@@ -1575,10 +2017,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -1586,10 +2028,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -1597,10 +2039,156 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
+        <v>33</v>
+      </c>
+      <c r="C11" t="n">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Día</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Hora Entrada</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Hora Salida</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>36</v>
+      </c>
+      <c r="C2" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>43</v>
+      </c>
+      <c r="C3" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>43</v>
+      </c>
+      <c r="C4" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>37</v>
+      </c>
+      <c r="C5" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>37</v>
+      </c>
+      <c r="C6" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>33</v>
+      </c>
+      <c r="C7" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
         <v>39</v>
       </c>
+      <c r="C8" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>37</v>
+      </c>
+      <c r="C9" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>40</v>
+      </c>
+      <c r="C10" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>36</v>
+      </c>
       <c r="C11" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1644,10 +2232,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -1655,10 +2243,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
@@ -1666,10 +2254,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -1688,10 +2276,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -1699,10 +2287,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C7" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
@@ -1710,10 +2298,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C8" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -1721,10 +2309,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -1732,10 +2320,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
@@ -1743,10 +2331,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C11" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1790,10 +2378,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C2" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -1801,10 +2389,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C3" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
@@ -1812,10 +2400,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C4" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
@@ -1823,10 +2411,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -1834,10 +2422,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
@@ -1845,10 +2433,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C7" t="n">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
@@ -1867,10 +2455,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
@@ -1878,10 +2466,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C10" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
@@ -1889,10 +2477,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C11" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1936,10 +2524,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
@@ -1958,10 +2546,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
@@ -1969,10 +2557,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -1980,10 +2568,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C6" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
@@ -1991,10 +2579,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -2002,10 +2590,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
@@ -2013,10 +2601,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C9" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
@@ -2024,10 +2612,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C10" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
@@ -2035,10 +2623,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C11" t="n">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2082,10 +2670,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
@@ -2093,10 +2681,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
@@ -2104,10 +2692,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C4" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -2115,10 +2703,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -2137,10 +2725,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C7" t="n">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
@@ -2148,10 +2736,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C8" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
@@ -2159,10 +2747,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C9" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
@@ -2170,10 +2758,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C10" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
@@ -2181,10 +2769,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2228,10 +2816,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C2" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
@@ -2239,10 +2827,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
@@ -2250,10 +2838,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
@@ -2261,10 +2849,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -2283,10 +2871,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C7" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
@@ -2294,10 +2882,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
@@ -2305,10 +2893,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C9" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
@@ -2316,10 +2904,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C10" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
@@ -2327,10 +2915,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C11" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2374,10 +2962,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C2" t="n">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
@@ -2385,10 +2973,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C3" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
@@ -2396,10 +2984,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -2418,10 +3006,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -2429,10 +3017,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C7" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
@@ -2440,10 +3028,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
@@ -2462,10 +3050,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C10" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
@@ -2473,10 +3061,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C11" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2520,10 +3108,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
@@ -2531,10 +3119,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C3" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
@@ -2542,10 +3130,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C4" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
@@ -2553,10 +3141,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -2564,10 +3152,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C6" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -2575,10 +3163,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -2586,10 +3174,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
@@ -2597,10 +3185,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -2608,10 +3196,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C10" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
@@ -2619,10 +3207,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C11" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
